--- a/doc/クラス構成図/クラス構成図_F2_fireworks.xlsx
+++ b/doc/クラス構成図/クラス構成図_F2_fireworks.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dojo6\doc\クラス構成図\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2D8B356-E8DF-4025-AED2-33B60D2C3CE7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EE13677-98C5-4517-BAB4-09FF69C43D55}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3060" yWindow="1490" windowWidth="14400" windowHeight="7360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="クラス設計書" sheetId="1" r:id="rId1"/>
@@ -524,9 +524,15 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -535,12 +541,6 @@
     </xf>
     <xf numFmtId="176" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -558,493 +558,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>89647</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>37355</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>72277</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>164355</xdr:rowOff>
-    </xdr:to>
-    <xdr:grpSp>
-      <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="2" name="グループ化 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{62927DFF-F41D-472F-A047-DEEB01029CAC}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGrpSpPr/>
-      </xdr:nvGrpSpPr>
-      <xdr:grpSpPr>
-        <a:xfrm>
-          <a:off x="851647" y="1591237"/>
-          <a:ext cx="2014630" cy="1292412"/>
-          <a:chOff x="6362675" y="2500004"/>
-          <a:chExt cx="2097757" cy="891632"/>
-        </a:xfrm>
-      </xdr:grpSpPr>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="3" name="正方形/長方形 2">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1F0C6B83-5345-45D5-BE8A-2B8BD002C449}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="6372200" y="2500004"/>
-            <a:ext cx="2088232" cy="360040"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="dk1"/>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="lt1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="dk1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="dk1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr wrap="square" rtlCol="0" anchor="ctr"/>
-          <a:lstStyle>
-            <a:defPPr>
-              <a:defRPr lang="ja-JP"/>
-            </a:defPPr>
-            <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-              <a:defRPr kumimoji="1" sz="1800" kern="1200">
-                <a:solidFill>
-                  <a:schemeClr val="dk1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl1pPr>
-            <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-              <a:defRPr kumimoji="1" sz="1800" kern="1200">
-                <a:solidFill>
-                  <a:schemeClr val="dk1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl2pPr>
-            <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-              <a:defRPr kumimoji="1" sz="1800" kern="1200">
-                <a:solidFill>
-                  <a:schemeClr val="dk1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl3pPr>
-            <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-              <a:defRPr kumimoji="1" sz="1800" kern="1200">
-                <a:solidFill>
-                  <a:schemeClr val="dk1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl4pPr>
-            <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-              <a:defRPr kumimoji="1" sz="1800" kern="1200">
-                <a:solidFill>
-                  <a:schemeClr val="dk1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl5pPr>
-            <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-              <a:defRPr kumimoji="1" sz="1800" kern="1200">
-                <a:solidFill>
-                  <a:schemeClr val="dk1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl6pPr>
-            <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-              <a:defRPr kumimoji="1" sz="1800" kern="1200">
-                <a:solidFill>
-                  <a:schemeClr val="dk1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl7pPr>
-            <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-              <a:defRPr kumimoji="1" sz="1800" kern="1200">
-                <a:solidFill>
-                  <a:schemeClr val="dk1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl8pPr>
-            <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-              <a:defRPr kumimoji="1" sz="1800" kern="1200">
-                <a:solidFill>
-                  <a:schemeClr val="dk1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl9pPr>
-          </a:lstStyle>
-          <a:p>
-            <a:pPr algn="ctr"/>
-            <a:r>
-              <a:rPr lang="en-US" altLang="ja-JP"/>
-              <a:t>LoginServlet</a:t>
-            </a:r>
-            <a:endParaRPr lang="ja-JP" altLang="en-US"/>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="4" name="正方形/長方形 3">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2D9FC3E7-54F4-4592-9EBF-C5A319AA76AA}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="6363994" y="2850111"/>
-            <a:ext cx="2088232" cy="294312"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="dk1"/>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="lt1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="dk1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="dk1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr wrap="square" rtlCol="0" anchor="ctr"/>
-          <a:lstStyle>
-            <a:defPPr>
-              <a:defRPr lang="ja-JP"/>
-            </a:defPPr>
-            <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-              <a:defRPr kumimoji="1" sz="1800" kern="1200">
-                <a:solidFill>
-                  <a:schemeClr val="dk1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl1pPr>
-            <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-              <a:defRPr kumimoji="1" sz="1800" kern="1200">
-                <a:solidFill>
-                  <a:schemeClr val="dk1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl2pPr>
-            <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-              <a:defRPr kumimoji="1" sz="1800" kern="1200">
-                <a:solidFill>
-                  <a:schemeClr val="dk1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl3pPr>
-            <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-              <a:defRPr kumimoji="1" sz="1800" kern="1200">
-                <a:solidFill>
-                  <a:schemeClr val="dk1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl4pPr>
-            <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-              <a:defRPr kumimoji="1" sz="1800" kern="1200">
-                <a:solidFill>
-                  <a:schemeClr val="dk1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl5pPr>
-            <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-              <a:defRPr kumimoji="1" sz="1800" kern="1200">
-                <a:solidFill>
-                  <a:schemeClr val="dk1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl6pPr>
-            <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-              <a:defRPr kumimoji="1" sz="1800" kern="1200">
-                <a:solidFill>
-                  <a:schemeClr val="dk1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl7pPr>
-            <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-              <a:defRPr kumimoji="1" sz="1800" kern="1200">
-                <a:solidFill>
-                  <a:schemeClr val="dk1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl8pPr>
-            <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-              <a:defRPr kumimoji="1" sz="1800" kern="1200">
-                <a:solidFill>
-                  <a:schemeClr val="dk1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl9pPr>
-          </a:lstStyle>
-          <a:p>
-            <a:r>
-              <a:rPr lang="en-US" altLang="ja-JP"/>
-              <a:t>- </a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="ja-JP" altLang="en-US"/>
-              <a:t>ログイン条件</a:t>
-            </a:r>
-            <a:endParaRPr lang="en-US" altLang="ja-JP"/>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="5" name="正方形/長方形 4">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{999769A4-A293-4A7A-A4C5-EA576B952327}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="6362675" y="3141006"/>
-            <a:ext cx="2088232" cy="250630"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="dk1"/>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="lt1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="dk1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="dk1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr wrap="square" rtlCol="0" anchor="ctr"/>
-          <a:lstStyle>
-            <a:defPPr>
-              <a:defRPr lang="ja-JP"/>
-            </a:defPPr>
-            <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-              <a:defRPr kumimoji="1" sz="1800" kern="1200">
-                <a:solidFill>
-                  <a:schemeClr val="dk1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl1pPr>
-            <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-              <a:defRPr kumimoji="1" sz="1800" kern="1200">
-                <a:solidFill>
-                  <a:schemeClr val="dk1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl2pPr>
-            <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-              <a:defRPr kumimoji="1" sz="1800" kern="1200">
-                <a:solidFill>
-                  <a:schemeClr val="dk1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl3pPr>
-            <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-              <a:defRPr kumimoji="1" sz="1800" kern="1200">
-                <a:solidFill>
-                  <a:schemeClr val="dk1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl4pPr>
-            <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-              <a:defRPr kumimoji="1" sz="1800" kern="1200">
-                <a:solidFill>
-                  <a:schemeClr val="dk1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl5pPr>
-            <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-              <a:defRPr kumimoji="1" sz="1800" kern="1200">
-                <a:solidFill>
-                  <a:schemeClr val="dk1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl6pPr>
-            <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-              <a:defRPr kumimoji="1" sz="1800" kern="1200">
-                <a:solidFill>
-                  <a:schemeClr val="dk1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl7pPr>
-            <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-              <a:defRPr kumimoji="1" sz="1800" kern="1200">
-                <a:solidFill>
-                  <a:schemeClr val="dk1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl8pPr>
-            <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-              <a:defRPr kumimoji="1" sz="1800" kern="1200">
-                <a:solidFill>
-                  <a:schemeClr val="dk1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl9pPr>
-          </a:lstStyle>
-          <a:p>
-            <a:r>
-              <a:rPr lang="en-US" altLang="ja-JP"/>
-              <a:t>+ </a:t>
-            </a:r>
-            <a:r>
-              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800" kern="1200">
-                <a:solidFill>
-                  <a:schemeClr val="dk1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:rPr>
-              <a:t>isLoginOK</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1800" kern="1200">
-                <a:solidFill>
-                  <a:schemeClr val="dk1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:rPr>
-              <a:t>（）</a:t>
-            </a:r>
-            <a:endParaRPr lang="ja-JP" altLang="en-US"/>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-    </xdr:grpSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1370,8 +883,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AN39"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="P13" sqref="P13"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8:O16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.6328125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1421,10 +934,10 @@
       <c r="AC1" s="21"/>
       <c r="AD1" s="21"/>
       <c r="AE1" s="21"/>
-      <c r="AF1" s="34" t="s">
+      <c r="AF1" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="AG1" s="34"/>
+      <c r="AG1" s="36"/>
       <c r="AH1" s="28" t="s">
         <v>9</v>
       </c>
@@ -1466,7 +979,7 @@
         <v>0</v>
       </c>
       <c r="X2" s="30"/>
-      <c r="Y2" s="35">
+      <c r="Y2" s="31">
         <v>45089</v>
       </c>
       <c r="Z2" s="30"/>
@@ -1475,19 +988,19 @@
       <c r="AC2" s="30"/>
       <c r="AD2" s="30"/>
       <c r="AE2" s="30"/>
-      <c r="AF2" s="31" t="s">
+      <c r="AF2" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="AG2" s="31"/>
-      <c r="AH2" s="36">
+      <c r="AG2" s="32"/>
+      <c r="AH2" s="33">
         <v>45089</v>
       </c>
-      <c r="AI2" s="32"/>
-      <c r="AJ2" s="32"/>
-      <c r="AK2" s="32"/>
-      <c r="AL2" s="32"/>
-      <c r="AM2" s="32"/>
-      <c r="AN2" s="33"/>
+      <c r="AI2" s="34"/>
+      <c r="AJ2" s="34"/>
+      <c r="AK2" s="34"/>
+      <c r="AL2" s="34"/>
+      <c r="AM2" s="34"/>
+      <c r="AN2" s="35"/>
     </row>
     <row r="3" spans="1:40" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A3" s="18"/>
@@ -2982,6 +2495,5 @@
   <headerFooter alignWithMargins="0">
     <oddFooter>&amp;C&amp;8&amp;P／&amp;"／,標準"&amp;N</oddFooter>
   </headerFooter>
-  <drawing r:id="rId2"/>
 </worksheet>
 </file>